--- a/db/Encomendas.xlsx
+++ b/db/Encomendas.xlsx
@@ -348,7 +348,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -566,6 +566,132 @@
         <v>37.8</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>F35363_1556815384</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>43587.73827284455</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Carteiras</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marca: Herschel; Tamanho: Unic; </t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I6" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="J6" t="n">
+        <v>39.8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>F35363_1556815384</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>43587.73827284455</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Carteiras</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>3</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marca: Element; Tamanho: Unic; </t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="J7" t="n">
+        <v>24.9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>F42995_1556816158</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>43587.74721260411</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Bonés</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>3</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nome: Boné New Era 940 Leag Basic; </t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+      <c r="I8" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="J8" t="n">
+        <v>37.8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
